--- a/biology/Zoologie/Channi/Channi.xlsx
+++ b/biology/Zoologie/Channi/Channi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La channi est une race bovine pakistanaise.
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle appartient à la sous-espèce zébu de Bos taurus.
 </t>
@@ -543,7 +557,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle porte une robe gris clair pouvant être tachetée de noir. C'est une race de taille moyenne et légère.
 </t>
@@ -574,7 +590,9 @@
           <t>Aptitudes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est essentiellement utilisée pour sa force de traction. Un peu de lait peut être tiré pour la consommation familiale. C'est une race rustique, résistante à la chaleur et aux insectes parasites de la peau. Elle est frugale, se contentant de déchets végétaux fibreux ou de paille.
 </t>
